--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,68 +1,553 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3992EA-B5C5-4E04-93C9-E3E466ED32C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AA65B64B-C489-4BC3-9530-39B9754481B4}"/>
+    <workbookView windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="icsd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Items</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+  <si>
+    <t>Adm No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Adan, Zubeir Abdullahi</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agil, Fatma Salim </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruasa, Caesar Kipkoech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayiera, Ajani Maina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barasa, Conslata Nanzala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busiyile, Caleb Chemwa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyrilla, Vanessa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitiche, Emmanuel Chege </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitonga, Lee Njiru  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haggai, Edith Amondi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaboke, Fidel Agade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kariuki, Alvin Nathey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kariuki, Maryfancy Njoki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasana, Valerie Najjuma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayanga, Brian Bona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keter, Emmanuel Kipngetich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimutai, Bethwel Kimutai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiplagat, Shawn Kibet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kithinji, George Fundi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyalo, Tracey Mwende </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagho, Wendy Shighadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liaga, Isiaho O'neil </t>
+  </si>
+  <si>
+    <t>Luchivya, Leslie Kitiabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maina, Nick Karanja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayeye, Mary Atieno </t>
+  </si>
+  <si>
+    <t>Mbeva, Benjamin Muuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbindyo, Ryan Kyalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirieiri, Michael Zephaniah </t>
+  </si>
+  <si>
+    <t>Muendo, Anthony Kimanthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muga, Karmi Mugiisa Otieno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyagia, Tracey Wairimu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyao, Lance Mwania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutuku, Mark Mutinda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwangi, Natalia Mary Wambui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwapahe, Martin Lenga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndumbe, Stanley Munene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndungi, Tiffany Jane Waithira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndung'u, Nelius Wambui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndung'u, Victor Kahindo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Njagi, Yvonne Kanini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Njihia, Ian Kimani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odongo, Edward Gelazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oketch, Arnold Felix Oguda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omondi, Leon Sebastian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orieko, Shevaun Orieko </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owino, Joshua Radula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogito, Marilynn Sarange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutozi, Joey Shalom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatu, Tijani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentine, Wanjiku Muriuki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wabuga, Linet Wangui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wamaya, Teddy Anyonga </t>
+  </si>
+  <si>
+    <t>Wamburu, Yvonne Wangui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -70,31 +555,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +885,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -122,7 +897,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -136,12 +911,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -169,31 +944,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -221,23 +979,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,81 +1120,616 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571C186A-5165-4002-9D80-227AC98757A5}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150655</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151392</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151729</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150658</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151097</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150485</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151894</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>10</v>
+        <v>151790</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>151168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>151367</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>150828</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>151429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>151634</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>134976</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>151712</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>149958</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>150909</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>151728</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>151897</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>150907</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>150328</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>139080</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>150850</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>151541</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>151344</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>151731</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>151957</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>150335</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>150644</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>150772</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>150066</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>150473</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>150160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>150321</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>150364</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>150873</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>150668</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>150887</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>151360</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>150212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>149900</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>151089</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>151423</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>150773</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>151345</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>149772</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>150397</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>151775</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>151496</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>151962</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>151891</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>